--- a/EPPlusTest/Workbooks/FormulaTest2.xlsx
+++ b/EPPlusTest/Workbooks/FormulaTest2.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="ValidateFormulas" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Cells_B2B3">ValidateFormulas!$B$2:$B$3</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Functions</t>
   </si>
@@ -149,6 +150,27 @@
   </si>
   <si>
     <t>Vlookup</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimal </t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>FormulaToSum</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Boolean</t>
   </si>
 </sst>
 </file>
@@ -216,7 +238,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -227,6 +253,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowCount="1">
+  <autoFilter ref="A1:E29"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Number" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Decimal " totalsRowFunction="stdDev"/>
+    <tableColumn id="3" name="Test" totalsRowFunction="min"/>
+    <tableColumn id="4" name="FormulaToSum" totalsRowFunction="sum"/>
+    <tableColumn id="5" name="Column1" totalsRowFunction="count" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,7 +538,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,20 +692,20 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
@@ -682,6 +724,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>Sheet2!A1+B9+Sheet2!A9+J9</f>
+        <v>16</v>
+      </c>
       <c r="B2">
         <v>3</v>
       </c>
@@ -789,6 +835,10 @@
         <f>SUM({1;2;4;"Text";TRUE})</f>
         <v>7</v>
       </c>
+      <c r="K9">
+        <f>SUM(Sheet3!E29,Table1[FormulaToSum])+Table1[[#Totals],[Column1]]+Table1[[#Totals],[Decimal ]]</f>
+        <v>2129121.3509751195</v>
+      </c>
       <c r="L9">
         <f>SUM(4:5)</f>
         <v>30</v>
@@ -834,6 +884,10 @@
         <f>COUNT({1;2;4;"Text";TRUE})</f>
         <v>3</v>
       </c>
+      <c r="K10">
+        <f>COUNT(Sheet3!E29,Table1[FormulaToSum])+Table1[[#Totals],[Column1]]+Table1[[#Totals],[Decimal ]]</f>
+        <v>65.225975119502039</v>
+      </c>
       <c r="L10">
         <f>SUM(5:6)</f>
         <v>18</v>
@@ -879,6 +933,10 @@
         <f>COUNTA({1;2;4;"Text";TRUE})</f>
         <v>5</v>
       </c>
+      <c r="K11">
+        <f>COUNTA(Sheet3!E29,Table1[FormulaToSum])+Table1[[#Totals],[Column1]]+Table1[[#Totals],[Decimal ]]</f>
+        <v>65.225975119502039</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -920,6 +978,10 @@
         <f>MAX({1;2;4;"Text";TRUE})</f>
         <v>4</v>
       </c>
+      <c r="K12">
+        <f>SUM(Sheet3!E29,Table1[FormulaToSum])+Table1[[#Totals],[Column1]]+Table1[[#Totals],[Decimal ]]</f>
+        <v>2129121.3509751195</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -961,10 +1023,6 @@
         <f>MIN({1;2;4;"Text";TRUE})</f>
         <v>1</v>
       </c>
-      <c r="L13" t="b">
-        <f>D9=L15</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1005,10 +1063,6 @@
       <c r="J14">
         <f>AVERAGE({1;2;4;"Text";TRUE})</f>
         <v>2.3333333333333335</v>
-      </c>
-      <c r="L14" t="b">
-        <f>C10=C11</f>
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1470,45 +1524,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F30" t="e">
-        <f>HLOOKUP(4,{1;2},4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I30">
-        <f>INDEX(C10:D13,3,2)</f>
-        <v>3</v>
-      </c>
-    </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G31">
-        <f>INDEX(C11:D12,1,2)</f>
-        <v>5</v>
-      </c>
-      <c r="I31">
-        <f>INDEX(D9:D13, 2)</f>
-        <v>4</v>
-      </c>
+      <c r="D31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="e">
         <f>SUM(D:D)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F32">
-        <f>LOOKUP(3,{3},{5})</f>
-        <v>5</v>
-      </c>
-      <c r="I32" t="e">
-        <f>INDEX({1;3;5},{2;4;6},2,2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J32" t="b">
-        <f>ISEVEN(3.9999)</f>
+      <c r="D32" t="b">
+        <f>B4=B3</f>
         <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <f>C25=D25</f>
+        <v>1</v>
+      </c>
+      <c r="F32" t="e">
+        <f>E37=E38</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G32" t="b">
+        <f>LEFT(A22,5)=LEFT(A23,5)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1516,9 +1562,17 @@
         <f>COUNT(D:D)</f>
         <v>20</v>
       </c>
-      <c r="G33">
-        <f>SUM(INDEX(D13:E14,1,0))</f>
-        <v>21</v>
+      <c r="D33" t="b">
+        <f>C30=D30</f>
+        <v>1</v>
+      </c>
+      <c r="E33" t="e">
+        <f>D37=D38</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" t="e">
+        <f>G37=H37</f>
+        <v>#NULL!</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1652,10 +1706,577 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A35:I35"/>
+    <mergeCell ref="D31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>7777</v>
+      </c>
+      <c r="E2">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>31111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>99</v>
+      </c>
+      <c r="E3">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>1635.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-7579</v>
+      </c>
+      <c r="E4">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>-409265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-15257</v>
+      </c>
+      <c r="E5" t="e">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>-22935</v>
+      </c>
+      <c r="E6">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>2201759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>-2</v>
+      </c>
+      <c r="C7">
+        <v>-2</v>
+      </c>
+      <c r="D7">
+        <v>-30613</v>
+      </c>
+      <c r="E7">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>1790858.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>138</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8">
+        <v>-3</v>
+      </c>
+      <c r="D8">
+        <v>-38291</v>
+      </c>
+      <c r="E8">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>1761383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>159</v>
+      </c>
+      <c r="B9">
+        <v>-4</v>
+      </c>
+      <c r="C9">
+        <v>-4</v>
+      </c>
+      <c r="D9">
+        <v>-45969</v>
+      </c>
+      <c r="E9">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>1827263.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>180</v>
+      </c>
+      <c r="B10">
+        <v>-5</v>
+      </c>
+      <c r="C10">
+        <v>-5</v>
+      </c>
+      <c r="D10">
+        <v>-53647</v>
+      </c>
+      <c r="E10">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>1931287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>201</v>
+      </c>
+      <c r="B11">
+        <v>-6</v>
+      </c>
+      <c r="C11">
+        <v>-6</v>
+      </c>
+      <c r="D11">
+        <v>-61325</v>
+      </c>
+      <c r="E11">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>2054381.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>222</v>
+      </c>
+      <c r="B12">
+        <v>-7</v>
+      </c>
+      <c r="C12">
+        <v>-7</v>
+      </c>
+      <c r="D12">
+        <v>-69003</v>
+      </c>
+      <c r="E12">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>2188373.8571428573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>243</v>
+      </c>
+      <c r="B13">
+        <v>-8</v>
+      </c>
+      <c r="C13">
+        <v>-8</v>
+      </c>
+      <c r="D13">
+        <v>-76681</v>
+      </c>
+      <c r="E13">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>2329177.375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>264</v>
+      </c>
+      <c r="B14">
+        <v>-9</v>
+      </c>
+      <c r="C14">
+        <v>-9</v>
+      </c>
+      <c r="D14">
+        <v>-84359</v>
+      </c>
+      <c r="E14">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>2474521.6666666665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>285</v>
+      </c>
+      <c r="B15">
+        <v>-10</v>
+      </c>
+      <c r="C15">
+        <v>-10</v>
+      </c>
+      <c r="D15">
+        <v>-92037</v>
+      </c>
+      <c r="E15">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>2623044.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>306</v>
+      </c>
+      <c r="B16">
+        <v>-11</v>
+      </c>
+      <c r="C16">
+        <v>-11</v>
+      </c>
+      <c r="D16">
+        <v>-99715</v>
+      </c>
+      <c r="E16">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>2773879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>327</v>
+      </c>
+      <c r="B17">
+        <v>-12</v>
+      </c>
+      <c r="C17">
+        <v>-12</v>
+      </c>
+      <c r="D17">
+        <v>-107393</v>
+      </c>
+      <c r="E17">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>2926447.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>348</v>
+      </c>
+      <c r="B18">
+        <v>-13</v>
+      </c>
+      <c r="C18">
+        <v>-13</v>
+      </c>
+      <c r="D18">
+        <v>-115071</v>
+      </c>
+      <c r="E18">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>3080349.153846154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>369</v>
+      </c>
+      <c r="B19">
+        <v>-14</v>
+      </c>
+      <c r="C19">
+        <v>-14</v>
+      </c>
+      <c r="D19">
+        <v>-122749</v>
+      </c>
+      <c r="E19">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>3235298.9285714286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>390</v>
+      </c>
+      <c r="B20">
+        <v>-15</v>
+      </c>
+      <c r="C20">
+        <v>-15</v>
+      </c>
+      <c r="D20">
+        <v>-130427</v>
+      </c>
+      <c r="E20">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>3391087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>411</v>
+      </c>
+      <c r="B21">
+        <v>-16</v>
+      </c>
+      <c r="C21">
+        <v>-16</v>
+      </c>
+      <c r="D21">
+        <v>-138105</v>
+      </c>
+      <c r="E21">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>3547556.1875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>432</v>
+      </c>
+      <c r="B22">
+        <v>-17</v>
+      </c>
+      <c r="C22">
+        <v>-17</v>
+      </c>
+      <c r="D22">
+        <v>-145783</v>
+      </c>
+      <c r="E22">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>3704586.2941176472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>453</v>
+      </c>
+      <c r="B23">
+        <v>-18</v>
+      </c>
+      <c r="C23">
+        <v>-18</v>
+      </c>
+      <c r="D23">
+        <v>-153461</v>
+      </c>
+      <c r="E23">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>3862083.8333333335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>474</v>
+      </c>
+      <c r="B24">
+        <v>-19</v>
+      </c>
+      <c r="C24">
+        <v>-19</v>
+      </c>
+      <c r="D24">
+        <v>-161139</v>
+      </c>
+      <c r="E24">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>4019975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>495</v>
+      </c>
+      <c r="B25">
+        <v>-20</v>
+      </c>
+      <c r="C25">
+        <v>-20</v>
+      </c>
+      <c r="D25">
+        <v>-168817</v>
+      </c>
+      <c r="E25">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>4178200.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>516</v>
+      </c>
+      <c r="B26">
+        <v>-21</v>
+      </c>
+      <c r="C26">
+        <v>-21</v>
+      </c>
+      <c r="D26">
+        <v>-176495</v>
+      </c>
+      <c r="E26">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>4336713.2857142854</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>537</v>
+      </c>
+      <c r="B27">
+        <v>-22</v>
+      </c>
+      <c r="C27">
+        <v>-22</v>
+      </c>
+      <c r="D27">
+        <v>-184173</v>
+      </c>
+      <c r="E27">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>4495473.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>558</v>
+      </c>
+      <c r="B28">
+        <v>-23</v>
+      </c>
+      <c r="C28">
+        <v>-23</v>
+      </c>
+      <c r="D28">
+        <v>-191851</v>
+      </c>
+      <c r="E28">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>4654449.0869565215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>579</v>
+      </c>
+      <c r="B29">
+        <v>-24</v>
+      </c>
+      <c r="C29">
+        <v>-24</v>
+      </c>
+      <c r="D29">
+        <v>-199529</v>
+      </c>
+      <c r="E29">
+        <f>Table1[[#This Row],[Test]]+Table1[[#This Row],[FormulaToSum]]*Table1[[#This Row],[Number]]/Table1[[#This Row],[Decimal ]]</f>
+        <v>4813613.125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <f>SUBTOTAL(107,Table1[[Decimal ]])</f>
+        <v>8.2259751195020439</v>
+      </c>
+      <c r="C30">
+        <f>SUBTOTAL(105,Table1[Test])</f>
+        <v>-24</v>
+      </c>
+      <c r="D30">
+        <f>SUBTOTAL(109,Table1[FormulaToSum])</f>
+        <v>-2684528</v>
+      </c>
+      <c r="E30">
+        <f>SUBTOTAL(103,Table1[Column1])</f>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>